--- a/biology/Médecine/André_Demichel/André_Demichel.xlsx
+++ b/biology/Médecine/André_Demichel/André_Demichel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Demichel</t>
+          <t>André_Demichel</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">André Demichel, né le 18 mars 1935, à Libourne et mort le 8 août 2000 à San-Nicolao[1], est un juriste et professeur de droit public français. Ses recherches portent principalement sur le droit public et le droit médical. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">André Demichel, né le 18 mars 1935, à Libourne et mort le 8 août 2000 à San-Nicolao, est un juriste et professeur de droit public français. Ses recherches portent principalement sur le droit public et le droit médical. 
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Demichel</t>
+          <t>André_Demichel</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Parcours</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Agrégé des facultés de droit en 1960, André Demichel enseigne, au cours de sa carrière, à l'Université de droit d'Alger, à l'Université Lumière-Lyon II avant de rejoindre l'Université Paris VIII (« Vincennes Saint-Denis »)[2]. 
-Dans la première partie de sa carrière, il écrit essentiellement sur le droit public et plus particulièrement sur le droit administratif. Proche du Parti communiste français, André Demichel propose une analyse marxiste et critique du droit en marge du mouvement « Critique du droit  »[3]. Il fait état de ses réflexions dans son ouvrage Le droit administratif. Essai de réflexion théorique publié en 1978. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Agrégé des facultés de droit en 1960, André Demichel enseigne, au cours de sa carrière, à l'Université de droit d'Alger, à l'Université Lumière-Lyon II avant de rejoindre l'Université Paris VIII (« Vincennes Saint-Denis »). 
+Dans la première partie de sa carrière, il écrit essentiellement sur le droit public et plus particulièrement sur le droit administratif. Proche du Parti communiste français, André Demichel propose une analyse marxiste et critique du droit en marge du mouvement « Critique du droit  ». Il fait état de ses réflexions dans son ouvrage Le droit administratif. Essai de réflexion théorique publié en 1978. 
 Il se focalisera ensuite sur le droit médical. 
 </t>
         </is>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Demichel</t>
+          <t>André_Demichel</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,17 +560,56 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Ouvrages
-André Demichel, Le Contrôle de l'État sur les organismes privés. Essai d'une théorie générale, Paris, Librairie générale de Droit et de jurisprudence, 1960
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>André Demichel, Le Contrôle de l'État sur les organismes privés. Essai d'une théorie générale, Paris, Librairie générale de Droit et de jurisprudence, 1960
 André Demichel, Grands services publics et entreprises nationales, Paris, Dalloz, 1974
 André Demichel, Le droit administratif. Essai de réflexion théorique, Paris, Librairie générale de droit et de jurisprudence, 1978
 André Demichel, Droit médical, Paris, Berger-Levrault, 1983
 André Demichel, Le Droit pharmaceutique, Paris, Édition du Papyrus, 1986
 André Demichel, La responsabilité médicale, Lyon, L'Hermès, 1997
 André Demichel, Le droit de la santé, Bordeaux, Les Études hospitalières, 1998
-André Demichel, Le secret médical, Bordeaux, Les Études hospitalières, 2001
-Ouvrages en collaboration
-André Demichel, Pierre Lalumière, Les régimes parlementaires européens, Paris, Presses universitaires de France, 1966, rééd. 1978
+André Demichel, Le secret médical, Bordeaux, Les Études hospitalières, 2001</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>André_Demichel</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Andr%C3%A9_Demichel</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Ouvrages en collaboration</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>André Demichel, Pierre Lalumière, Les régimes parlementaires européens, Paris, Presses universitaires de France, 1966, rééd. 1978
 André Demichel, Francine Demichel, Le droit électoral, Paris, Dalloz, coll. « Manuels Dalloz de droit usuel », 1973
 André Demichel, Francine Demichel, Les dictatures européennes, Paris, Presses universitaires de France, coll. « Thémis: Sciences politiques », 1973
 André Demichel, Francine Demichel, Marcel Piquemal, Institutions et pouvoirs en France une traduction institutionnelle du capitalisme monopoliste d'État, Paris, Éditions sociales, 1975
